--- a/reportes/RI10.10.2.21.xlsx
+++ b/reportes/RI10.10.2.21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,87 +40,93 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>RECOF</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>2017-0022405/201769765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección actual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calle o lugar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departamento </t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
+  </si>
+  <si>
+    <t>Fecha de nacimiento (Día     Mes     Año )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edad en años </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugar de nacimiento </t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>2001-11-16</t>
+  </si>
+  <si>
+    <t>15 AÑOS</t>
+  </si>
+  <si>
+    <t>SAN MARCOS</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocupación </t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>No. De Cédula</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>GUATEMATECO</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>/201764182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección actual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle o lugar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Departamento </t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
-    <t>Fecha de nacimiento (Día     Mes     Año )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edad en años </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lugar de nacimiento </t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>1987-10-28</t>
-  </si>
-  <si>
-    <t>30 AÑOS</t>
-  </si>
-  <si>
-    <t>JUTIAPA</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocupación </t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>No. De Cédula</t>
-  </si>
-  <si>
-    <t>SOLTERO</t>
-  </si>
-  <si>
-    <t>AMA DE CASA</t>
-  </si>
-  <si>
-    <t>GUATEMALTECA</t>
-  </si>
-  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -142,6 +148,15 @@
     <t>Dirección</t>
   </si>
   <si>
+    <t>ODRI RECOF</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t>57236844</t>
+  </si>
+  <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
   </si>
   <si>
@@ -166,10 +181,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>12:7:51</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>14:26:13</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1070,165 +1085,165 @@
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1236,20 +1251,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1257,14 +1272,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1274,14 +1289,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1291,14 +1306,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1308,14 +1323,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1325,56 +1340,56 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1384,14 +1399,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1401,39 +1416,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1445,7 +1460,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1486,7 +1501,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1497,7 +1512,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1529,7 +1544,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1540,7 +1555,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1585,7 +1600,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1596,7 +1611,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1629,46 +1644,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1688,7 +1703,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1697,13 +1712,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1718,7 +1733,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.21.xlsx
+++ b/reportes/RI10.10.2.21.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>RECOF</t>
-  </si>
-  <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>2017-0022405/201769765</t>
+    <t>ZAPET</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>/201771177</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>2001-11-16</t>
-  </si>
-  <si>
-    <t>15 AÑOS</t>
-  </si>
-  <si>
-    <t>SAN MARCOS</t>
+    <t>2004-09-20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>ESTA CAPITAL</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -118,15 +118,15 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t>GUATEMATECO</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>NO PRESENTO</t>
+  </si>
+  <si>
     <t>Nombre del Cónyugue</t>
   </si>
   <si>
@@ -148,13 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>ODRI RECOF</t>
+    <t>NORLA BONILLA</t>
   </si>
   <si>
     <t>MADRE</t>
   </si>
   <si>
-    <t>57236844</t>
+    <t>27 AVE 10-01 ZONA 18 PARAISO 2</t>
+  </si>
+  <si>
+    <t>3065 3407</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -181,10 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>14:26:13</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>8:36:32</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1372,24 +1375,24 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1416,36 +1419,36 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>17</v>
@@ -1460,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1501,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1512,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1555,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1611,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1644,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1703,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1712,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
